--- a/Flight Payload/Perovskite Performance/P1_Assembled/X018_PreSatellite/curve_0.0_5_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P1_Assembled/X018_PreSatellite/curve_0.0_5_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P1_Assembled\X018_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233E9CE-F4D0-424E-839B-4F03EDB6256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,27 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45220.62521256533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>45220.625212565326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +512,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +536,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004820512820512821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>0.9914188034188034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>1.614714261773085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.6652307692307692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.291771409418468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <f>MAX(Data!$E$2:$E$257)</f>
         <v>0.8593260883577627</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>8593260.883577628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <f>(B12/((B8)*B9))</f>
+        <v>0.53679092382495974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.1481596704065108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>0.14815967040651079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,279 +626,279 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004820512820512821</v>
+        <v>4.8205128205128208E-3</v>
       </c>
       <c r="C2">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D2">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E2">
-        <v>0.007745781284242822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7.7457812842428222E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006427350427350428</v>
+        <v>6.4273504273504277E-3</v>
       </c>
       <c r="C3">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D3">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E3">
-        <v>0.01032770837899043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1.0327708378990431E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.008034188034188034</v>
+        <v>8.0341880341880337E-3</v>
       </c>
       <c r="C4">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D4">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E4">
-        <v>0.01290963547373804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.2909635473738039E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01124786324786325</v>
+        <v>1.1247863247863249E-2</v>
       </c>
       <c r="C5">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D5">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E5">
-        <v>0.01807348966323325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.8073489663233251E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01446153846153846</v>
+        <v>1.446153846153846E-2</v>
       </c>
       <c r="C6">
         <v>1.614714261773085</v>
       </c>
       <c r="D6">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E6">
-        <v>0.02335125240102616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.335125240102616E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01928205128205128</v>
+        <v>1.928205128205128E-2</v>
       </c>
       <c r="C7">
         <v>1.614714261773085</v>
       </c>
       <c r="D7">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E7">
-        <v>0.03113500320136821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.1135003201368212E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0241025641025641</v>
+        <v>2.41025641025641E-2</v>
       </c>
       <c r="C8">
         <v>1.614714261773085</v>
       </c>
       <c r="D8">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E8">
-        <v>0.03891875400171026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.8918754001710257E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03052991452991453</v>
+        <v>3.0529914529914531E-2</v>
       </c>
       <c r="C9">
         <v>1.614714261773085</v>
       </c>
       <c r="D9">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E9">
-        <v>0.04929708840216634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>4.9297088402166338E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03856410256410257</v>
+        <v>3.8564102564102573E-2</v>
       </c>
       <c r="C10">
         <v>1.614714261773085</v>
       </c>
       <c r="D10">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E10">
-        <v>0.06227000640273642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>6.2270006402736423E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0465982905982906</v>
+        <v>4.6598290598290598E-2</v>
       </c>
       <c r="C11">
         <v>1.614714261773085</v>
       </c>
       <c r="D11">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E11">
-        <v>0.07524292440330652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>7.5242924403306516E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05623931623931624</v>
+        <v>5.6239316239316238E-2</v>
       </c>
       <c r="C12">
         <v>1.614714261773085</v>
       </c>
       <c r="D12">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E12">
-        <v>0.09081042600399063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9.0810426003990627E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.06427350427350427</v>
+        <v>6.427350427350427E-2</v>
       </c>
       <c r="C13">
         <v>1.614714261773085</v>
       </c>
       <c r="D13">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E13">
         <v>0.1037833440045607</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07230769230769231</v>
+        <v>7.2307692307692309E-2</v>
       </c>
       <c r="C14">
         <v>1.614714261773085</v>
       </c>
       <c r="D14">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E14">
         <v>0.1167562620051308</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08034188034188035</v>
+        <v>8.0341880341880348E-2</v>
       </c>
       <c r="C15">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D15">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E15">
         <v>0.1290963547373804</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08837606837606837</v>
+        <v>8.8376068376068373E-2</v>
       </c>
       <c r="C16">
         <v>1.614714261773085</v>
       </c>
       <c r="D16">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E16">
-        <v>0.142702098006271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.14270209800627101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09641025641025641</v>
+        <v>9.6410256410256412E-2</v>
       </c>
       <c r="C17">
         <v>1.614714261773085</v>
       </c>
       <c r="D17">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E17">
-        <v>0.1556750160068411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.15567501600684111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -869,13 +909,13 @@
         <v>1.614714261773085</v>
       </c>
       <c r="D18">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E18">
-        <v>0.1816208520079813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.18162085200798131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -883,50 +923,50 @@
         <v>0.1253333333333333</v>
       </c>
       <c r="C19">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D19">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E19">
-        <v>0.2013903133903134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.20139031339031341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1381880341880342</v>
+        <v>0.13818803418803419</v>
       </c>
       <c r="C20">
         <v>1.614714261773085</v>
       </c>
       <c r="D20">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E20">
-        <v>0.2231341896098055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.22313418960980549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.151042735042735</v>
+        <v>0.15104273504273499</v>
       </c>
       <c r="C21">
         <v>1.614714261773085</v>
       </c>
       <c r="D21">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E21">
         <v>0.2438908584107177</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -937,13 +977,13 @@
         <v>1.614714261773085</v>
       </c>
       <c r="D22">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E22">
-        <v>0.2620529436115158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.26205294361151582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -951,33 +991,33 @@
         <v>0.1735384615384615</v>
       </c>
       <c r="C23">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D23">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E23">
-        <v>0.2788481262327416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.27884812623274158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1847863247863248</v>
+        <v>0.18478632478632481</v>
       </c>
       <c r="C24">
         <v>1.614714261773085</v>
       </c>
       <c r="D24">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E24">
-        <v>0.298377114013112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.29837711401311201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -985,50 +1025,50 @@
         <v>0.1944273504273504</v>
       </c>
       <c r="C25">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D25">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E25">
-        <v>0.3124131784644605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.31241317846446048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2056752136752137</v>
+        <v>0.20567521367521369</v>
       </c>
       <c r="C26">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D26">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E26">
-        <v>0.3304866681276937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.33048666812769367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2169230769230769</v>
+        <v>0.21692307692307691</v>
       </c>
       <c r="C27">
         <v>1.614714261773085</v>
       </c>
       <c r="D27">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E27">
-        <v>0.3502687860153924</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.35026878601539241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1036,228 +1076,228 @@
         <v>0.2281709401709402</v>
       </c>
       <c r="C28">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D28">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E28">
-        <v>0.3666336474541602</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.36663364745416022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2378119658119658</v>
+        <v>0.23781196581196579</v>
       </c>
       <c r="C29">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D29">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E29">
-        <v>0.3821252100226459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.38212521002264588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2474529914529915</v>
+        <v>0.24745299145299149</v>
       </c>
       <c r="C30">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D30">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E30">
-        <v>0.3976167725911315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.39761677259113148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2570940170940171</v>
+        <v>0.25709401709401708</v>
       </c>
       <c r="C31">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D31">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E31">
-        <v>0.4131083351596171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.41310833515961709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.2667350427350427</v>
+        <v>0.26673504273504273</v>
       </c>
       <c r="C32">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D32">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E32">
-        <v>0.4285998977281028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.42859989772810281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2747692307692308</v>
+        <v>0.27476923076923082</v>
       </c>
       <c r="C33">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D33">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E33">
-        <v>0.4393452707841848</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.43934527078418478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2956581196581197</v>
+        <v>0.29565811965811972</v>
       </c>
       <c r="C34">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D34">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E34">
         <v>0.4727457884461404</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.3165470085470086</v>
+        <v>0.31654700854700862</v>
       </c>
       <c r="C35">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D35">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E35">
-        <v>0.506146306108096</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.50614630610809597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.3326153846153846</v>
+        <v>0.33261538461538459</v>
       </c>
       <c r="C36">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D36">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E36">
-        <v>0.529219115391061</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.52921911539106103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.3486837606837607</v>
+        <v>0.34868376068376072</v>
       </c>
       <c r="C37">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D37">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E37">
         <v>0.554785256231209</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.3631452991452991</v>
+        <v>0.36314529914529908</v>
       </c>
       <c r="C38">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D38">
         <v>27.29668348329605</v>
       </c>
       <c r="E38">
-        <v>0.5749344127745333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.57493441277453328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.3776068376068376</v>
+        <v>0.37760683760683761</v>
       </c>
       <c r="C39">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D39">
         <v>27.29668348329605</v>
       </c>
       <c r="E39">
-        <v>0.5978300309823688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.59783003098236875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3888547008547009</v>
+        <v>0.38885470085470092</v>
       </c>
       <c r="C40">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D40">
         <v>27.16087908785677</v>
       </c>
       <c r="E40">
-        <v>0.6125748597342363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.61257485973423631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4001025641025641</v>
+        <v>0.40010256410256412</v>
       </c>
       <c r="C41">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D41">
         <v>27.16087908785677</v>
@@ -1266,12 +1306,12 @@
         <v>0.6302939672472101</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4129572649572649</v>
+        <v>0.41295726495726492</v>
       </c>
       <c r="C42">
         <v>1.567454332160215</v>
@@ -1280,15 +1320,15 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E42">
-        <v>0.6472916539542986</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.64729165395429855</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4258119658119658</v>
+        <v>0.42581196581196579</v>
       </c>
       <c r="C43">
         <v>1.567454332160215</v>
@@ -1297,49 +1337,49 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E43">
-        <v>0.6674408104976232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.66744081049762316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4354529914529915</v>
+        <v>0.43545299145299149</v>
       </c>
       <c r="C44">
-        <v>1.559577677224736</v>
+        <v>1.5595776772247361</v>
       </c>
       <c r="D44">
         <v>26.8892702969782</v>
       </c>
       <c r="E44">
-        <v>0.6791227649508192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.67912276495081925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4467008547008547</v>
+        <v>0.44670085470085469</v>
       </c>
       <c r="C45">
-        <v>1.559577677224736</v>
+        <v>1.5595776772247361</v>
       </c>
       <c r="D45">
         <v>26.8892702969782</v>
       </c>
       <c r="E45">
-        <v>0.6966646813886632</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.69666468138866322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.4563418803418803</v>
+        <v>0.45634188034188028</v>
       </c>
       <c r="C46">
         <v>1.551701022289258</v>
@@ -1348,15 +1388,15 @@
         <v>26.75346590153892</v>
       </c>
       <c r="E46">
-        <v>0.7081061622398978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.70810616223989775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.465982905982906</v>
+        <v>0.46598290598290598</v>
       </c>
       <c r="C47">
         <v>1.543824367353779</v>
@@ -1365,15 +1405,15 @@
         <v>26.61766150609964</v>
       </c>
       <c r="E47">
-        <v>0.7193957650267354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.71939576502673541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.474017094017094</v>
+        <v>0.47401709401709402</v>
       </c>
       <c r="C48">
         <v>1.543824367353779</v>
@@ -1382,15 +1422,15 @@
         <v>26.61766150609964</v>
       </c>
       <c r="E48">
-        <v>0.7317991402858171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.73179914028581705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4820512820512821</v>
+        <v>0.48205128205128212</v>
       </c>
       <c r="C49">
         <v>1.543824367353779</v>
@@ -1399,15 +1439,15 @@
         <v>26.61766150609964</v>
       </c>
       <c r="E49">
-        <v>0.7442025155448987</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.74420251554489869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.4949059829059829</v>
+        <v>0.49490598290598292</v>
       </c>
       <c r="C50">
         <v>1.528071057482822</v>
@@ -1416,32 +1456,32 @@
         <v>26.34605271522107</v>
       </c>
       <c r="E50">
-        <v>0.7562515086537208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.75625150865372082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5045470085470085</v>
+        <v>0.50454700854700851</v>
       </c>
       <c r="C51">
-        <v>1.520194402547344</v>
+        <v>1.5201944025473439</v>
       </c>
       <c r="D51">
         <v>26.21024831978179</v>
       </c>
       <c r="E51">
-        <v>0.7670095382151693</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.76700953821516926</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5157948717948717</v>
+        <v>0.51579487179487171</v>
       </c>
       <c r="C52">
         <v>1.512317747611865</v>
@@ -1450,15 +1490,15 @@
         <v>26.0744439243425</v>
       </c>
       <c r="E52">
-        <v>0.7800457387425712</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.78004573874257122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5254358974358974</v>
+        <v>0.52543589743589736</v>
       </c>
       <c r="C53">
         <v>1.496564437740908</v>
@@ -1470,49 +1510,49 @@
         <v>0.7863486784150433</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5334700854700855</v>
+        <v>0.53347008547008545</v>
       </c>
       <c r="C54">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D54">
         <v>25.66703073802465</v>
       </c>
       <c r="E54">
-        <v>0.7941703987314847</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.79417039873148465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5415042735042735</v>
+        <v>0.54150427350427355</v>
       </c>
       <c r="C55">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D55">
         <v>25.66703073802465</v>
       </c>
       <c r="E55">
-        <v>0.8061307963027421</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.80613079630274209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5495384615384615</v>
+        <v>0.54953846153846153</v>
       </c>
       <c r="C56">
-        <v>1.480811127869951</v>
+        <v>1.4808111278699509</v>
       </c>
       <c r="D56">
         <v>25.53122634258537</v>
@@ -1521,46 +1561,46 @@
         <v>0.8137626690386871</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5575726495726496</v>
+        <v>0.55757264957264963</v>
       </c>
       <c r="C57">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D57">
         <v>25.39542194714608</v>
       </c>
       <c r="E57">
-        <v>0.8212679767209682</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.82126797672096818</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5656068376068376</v>
+        <v>0.56560683760683761</v>
       </c>
       <c r="C58">
-        <v>1.457181163063516</v>
+        <v>1.4571811630635161</v>
       </c>
       <c r="D58">
-        <v>25.12381315626751</v>
+        <v>25.123813156267509</v>
       </c>
       <c r="E58">
-        <v>0.8241916294606088</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.82419162946060875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5736410256410256</v>
+        <v>0.57364102564102559</v>
       </c>
       <c r="C59">
         <v>1.449304508128038</v>
@@ -1569,66 +1609,66 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E59">
-        <v>0.8313805245087297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.83138052450872968</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5800683760683761</v>
+        <v>0.58006837606837613</v>
       </c>
       <c r="C60">
-        <v>1.441427853192559</v>
+        <v>1.4414278531925591</v>
       </c>
       <c r="D60">
         <v>24.85220436538895</v>
       </c>
       <c r="E60">
-        <v>0.8361267140211334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.83612671402113337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5864957264957265</v>
+        <v>0.58649572649572645</v>
       </c>
       <c r="C61">
         <v>1.433551198257081</v>
       </c>
       <c r="D61">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E61">
-        <v>0.8407716514906056</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.84077165149060562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5913162393162393</v>
+        <v>0.59131623931623933</v>
       </c>
       <c r="C62">
         <v>1.425674543321602</v>
       </c>
       <c r="D62">
-        <v>24.58059557451038</v>
+        <v>24.580595574510379</v>
       </c>
       <c r="E62">
-        <v>0.8430245094458267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.84302450944582674</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5977435897435898</v>
+        <v>0.59774358974358976</v>
       </c>
       <c r="C63">
         <v>1.417797888386124</v>
@@ -1637,10 +1677,10 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E63">
-        <v>0.847479599334803</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.84747959933480299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1651,30 +1691,30 @@
         <v>1.409921233450645</v>
       </c>
       <c r="D64">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E64">
-        <v>0.851833437180848</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.85183343718084803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6089914529914531</v>
+        <v>0.60899145299145307</v>
       </c>
       <c r="C65">
         <v>1.402044578515167</v>
       </c>
       <c r="D65">
-        <v>24.17318238819253</v>
+        <v>24.173182388192529</v>
       </c>
       <c r="E65">
-        <v>0.8538331650287408</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.85383316502874085</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1682,254 +1722,254 @@
         <v>0.6154188034188034</v>
       </c>
       <c r="C66">
-        <v>1.38629126864421</v>
+        <v>1.3862912686442099</v>
       </c>
       <c r="D66">
-        <v>23.90157359731396</v>
+        <v>23.901573597313959</v>
       </c>
       <c r="E66">
-        <v>0.8531497137389547</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.85314971373895465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6218461538461538</v>
+        <v>0.62184615384615383</v>
       </c>
       <c r="C67">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D67">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E67">
-        <v>0.8522637583633058</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.85226375836330581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6282735042735044</v>
+        <v>0.62827350427350437</v>
       </c>
       <c r="C68">
         <v>1.362661303837774</v>
       </c>
       <c r="D68">
-        <v>23.49416041099611</v>
+        <v>23.494160410996109</v>
       </c>
       <c r="E68">
-        <v>0.856123992500061</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.85612399250006099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6347008547008547</v>
+        <v>0.63470085470085469</v>
       </c>
       <c r="C69">
         <v>1.346907993966818</v>
       </c>
       <c r="D69">
-        <v>23.22255162011754</v>
+        <v>23.222551620117539</v>
       </c>
       <c r="E69">
-        <v>0.8548836549741528</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.85488365497415275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6411282051282051</v>
+        <v>0.64112820512820512</v>
       </c>
       <c r="C70">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D70">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E70">
-        <v>0.8584907590035794</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.85849075900357941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6459487179487179</v>
+        <v>0.64594871794871789</v>
       </c>
       <c r="C71">
-        <v>1.323278029160382</v>
+        <v>1.3232780291603821</v>
       </c>
       <c r="D71">
-        <v>22.81513843379969</v>
+        <v>22.815138433799689</v>
       </c>
       <c r="E71">
         <v>0.8547697464258549</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6507692307692308</v>
+        <v>0.65076923076923077</v>
       </c>
       <c r="C72">
         <v>1.315401374224904</v>
       </c>
       <c r="D72">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E72">
-        <v>0.8560227404571296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.85602274045712956</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6555897435897435</v>
+        <v>0.65558974358974353</v>
       </c>
       <c r="C73">
         <v>1.307524719289425</v>
       </c>
       <c r="D73">
-        <v>22.54352964292112</v>
+        <v>22.543529642921118</v>
       </c>
       <c r="E73">
         <v>0.8571997954562055</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6604102564102564</v>
+        <v>0.66041025641025641</v>
       </c>
       <c r="C74">
         <v>1.299648064353947</v>
       </c>
       <c r="D74">
-        <v>22.40772524748184</v>
+        <v>22.407725247481839</v>
       </c>
       <c r="E74">
         <v>0.8583009114230834</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6652307692307692</v>
+        <v>0.66523076923076918</v>
       </c>
       <c r="C75">
         <v>1.291771409418468</v>
       </c>
       <c r="D75">
-        <v>22.27192085204256</v>
+        <v>22.271920852042559</v>
       </c>
       <c r="E75">
         <v>0.8593260883577627</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6700512820512821</v>
+        <v>0.67005128205128206</v>
       </c>
       <c r="C76">
         <v>1.276018099547511</v>
       </c>
       <c r="D76">
-        <v>22.00031206116399</v>
+        <v>22.000312061163989</v>
       </c>
       <c r="E76">
-        <v>0.8549975635224504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.85499756352245038</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6732649572649573</v>
+        <v>0.67326495726495728</v>
       </c>
       <c r="C77">
-        <v>1.268141444612033</v>
+        <v>1.2681414446120329</v>
       </c>
       <c r="D77">
-        <v>21.86450766572471</v>
+        <v>21.864507665724709</v>
       </c>
       <c r="E77">
-        <v>0.8537951955126415</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.85379519551264149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6780854700854702</v>
+        <v>0.67808547008547015</v>
       </c>
       <c r="C78">
         <v>1.260264789676554</v>
       </c>
       <c r="D78">
-        <v>21.72870327028541</v>
+        <v>21.728703270285411</v>
       </c>
       <c r="E78">
-        <v>0.8545672423399924</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.85456724233999237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6812991452991454</v>
+        <v>0.68129914529914537</v>
       </c>
       <c r="C79">
-        <v>1.252388134741076</v>
+        <v>1.2523881347410759</v>
       </c>
       <c r="D79">
-        <v>21.59289887484614</v>
+        <v>21.592898874846139</v>
       </c>
       <c r="E79">
-        <v>0.853250965781886</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.85325096578188597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6845128205128205</v>
+        <v>0.68451282051282047</v>
       </c>
       <c r="C80">
-        <v>1.244511479805598</v>
+        <v>1.2445114798055981</v>
       </c>
       <c r="D80">
-        <v>21.45709447940686</v>
+        <v>21.457094479406859</v>
       </c>
       <c r="E80">
-        <v>0.8518840632023137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.85188406320231369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1937,271 +1977,271 @@
         <v>0.6877264957264958</v>
       </c>
       <c r="C81">
-        <v>1.236634824870119</v>
+        <v>1.2366348248701191</v>
       </c>
       <c r="D81">
-        <v>21.32129008396756</v>
+        <v>21.321290083967561</v>
       </c>
       <c r="E81">
-        <v>0.8504665346012755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.85046653460127553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6925470085470086</v>
+        <v>0.69254700854700857</v>
       </c>
       <c r="C82">
         <v>1.228758169934641</v>
       </c>
       <c r="D82">
-        <v>21.18548568852828</v>
+        <v>21.185485688528281</v>
       </c>
       <c r="E82">
-        <v>0.8509727948159321</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.85097279481593213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.6973675213675214</v>
+        <v>0.69736752136752145</v>
       </c>
       <c r="C83">
         <v>1.213004860063684</v>
       </c>
       <c r="D83">
-        <v>20.91387689764971</v>
+        <v>20.913876897649711</v>
       </c>
       <c r="E83">
-        <v>0.8459101926693682</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.84591019266936818</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.7005811965811966</v>
+        <v>0.70058119658119655</v>
       </c>
       <c r="C84">
         <v>1.197251550192727</v>
       </c>
       <c r="D84">
-        <v>20.64226810677115</v>
+        <v>20.642268106771152</v>
       </c>
       <c r="E84">
-        <v>0.838771923642713</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.83877192364271302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.7054017094017093</v>
+        <v>0.70540170940170932</v>
       </c>
       <c r="C85">
         <v>1.189374895257248</v>
       </c>
       <c r="D85">
-        <v>20.50646371133186</v>
+        <v>20.506463711331861</v>
       </c>
       <c r="E85">
-        <v>0.8389870842339417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.83898708423394175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.7086153846153846</v>
+        <v>0.70861538461538465</v>
       </c>
       <c r="C86">
         <v>1.18149824032177</v>
       </c>
       <c r="D86">
-        <v>20.37065931589258</v>
+        <v>20.370659315892581</v>
       </c>
       <c r="E86">
-        <v>0.8372278299880112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.83722782998801115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7118290598290599</v>
+        <v>0.71182905982905986</v>
       </c>
       <c r="C87">
         <v>1.173621585386291</v>
       </c>
       <c r="D87">
-        <v>20.2348549204533</v>
+        <v>20.234854920453301</v>
       </c>
       <c r="E87">
-        <v>0.8354179497206145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.83541794972061445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.715042735042735</v>
+        <v>0.71504273504273497</v>
       </c>
       <c r="C88">
         <v>1.157868275515334</v>
       </c>
       <c r="D88">
-        <v>19.96324612957473</v>
+        <v>19.963246129574731</v>
       </c>
       <c r="E88">
-        <v>0.8279252985436998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.82792529854369978</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7182564102564103</v>
+        <v>0.71825641025641029</v>
       </c>
       <c r="C89">
         <v>1.157868275515334</v>
       </c>
       <c r="D89">
-        <v>19.96324612957473</v>
+        <v>19.963246129574731</v>
       </c>
       <c r="E89">
         <v>0.8316463111214244</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7214700854700855</v>
+        <v>0.72147008547008551</v>
       </c>
       <c r="C90">
-        <v>1.149991620579856</v>
+        <v>1.1499916205798559</v>
       </c>
       <c r="D90">
-        <v>19.82744173413545</v>
+        <v>19.827441734135451</v>
       </c>
       <c r="E90">
-        <v>0.8296845527896308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.82968455278963082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7246837606837606</v>
+        <v>0.72468376068376061</v>
       </c>
       <c r="C91">
-        <v>1.134238310708899</v>
+        <v>1.1342383107088989</v>
       </c>
       <c r="D91">
-        <v>19.55583294325688</v>
+        <v>19.555832943256881</v>
       </c>
       <c r="E91">
-        <v>0.8219640845161206</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.82196408451612057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.7278974358974359</v>
+        <v>0.72789743589743594</v>
       </c>
       <c r="C92">
-        <v>1.126361655773421</v>
+        <v>1.1263616557734211</v>
       </c>
       <c r="D92">
-        <v>19.42002854781759</v>
+        <v>19.420028547817591</v>
       </c>
       <c r="E92">
-        <v>0.8198757611306633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.81987576113066329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.7311111111111112</v>
+        <v>0.73111111111111116</v>
       </c>
       <c r="C93">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D93">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E93">
         <v>0.8177368117237398</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.7327179487179487</v>
+        <v>0.73271794871794871</v>
       </c>
       <c r="C94">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D94">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E94">
-        <v>0.81953403548577</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.81953403548576997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.7359316239316239</v>
+        <v>0.73593162393162392</v>
       </c>
       <c r="C95">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D95">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E95">
-        <v>0.811535124094199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.81153512409419903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7375384615384616</v>
+        <v>0.73753846153846159</v>
       </c>
       <c r="C96">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D96">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E96">
-        <v>0.8133070348454965</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.81330703484549649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2212,35 +2252,35 @@
         <v>1.094855036031507</v>
       </c>
       <c r="D97">
-        <v>18.87681096606046</v>
+        <v>18.876810966060461</v>
       </c>
       <c r="E97">
-        <v>0.8110162073741762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.81101620737417623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.7439658119658119</v>
+        <v>0.74396581196581191</v>
       </c>
       <c r="C98">
         <v>1.07910172616055</v>
       </c>
       <c r="D98">
-        <v>18.60520217518189</v>
+        <v>18.605202175181891</v>
       </c>
       <c r="E98">
-        <v>0.8028147918967428</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.80281479189674276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7487863247863248</v>
+        <v>0.74878632478632479</v>
       </c>
       <c r="C99">
         <v>1.063348416289593</v>
@@ -2249,10 +2289,10 @@
         <v>18.33359338430332</v>
       </c>
       <c r="E99">
-        <v>0.7962207526008431</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.79622075260084313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2266,15 +2306,15 @@
         <v>18.06198459342475</v>
       </c>
       <c r="E100">
-        <v>0.7877915200268141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.78779152002681407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.7552136752136752</v>
+        <v>0.75521367521367522</v>
       </c>
       <c r="C101">
         <v>1.039718451483157</v>
@@ -2286,24 +2326,24 @@
         <v>0.7852095929320666</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.7584273504273504</v>
+        <v>0.75842735042735043</v>
       </c>
       <c r="C102">
-        <v>1.031841796547679</v>
+        <v>1.0318417965476789</v>
       </c>
       <c r="D102">
         <v>17.79037580254619</v>
       </c>
       <c r="E102">
-        <v>0.7825770398158534</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.78257703981585336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2317,10 +2357,10 @@
         <v>17.6545714071069</v>
       </c>
       <c r="E103">
-        <v>0.7782485149805412</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.77824851498054115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2328,24 +2368,24 @@
         <v>0.7632478632478632</v>
       </c>
       <c r="C104">
-        <v>1.016088486676722</v>
+        <v>1.0160884866767219</v>
       </c>
       <c r="D104">
         <v>17.51876701166762</v>
       </c>
       <c r="E104">
-        <v>0.7755273663267629</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>0.77552736632676289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.7664615384615384</v>
+        <v>0.76646153846153842</v>
       </c>
       <c r="C105">
-        <v>1.000335176805765</v>
+        <v>1.0003351768057649</v>
       </c>
       <c r="D105">
         <v>17.24715822078905</v>
@@ -2354,24 +2394,24 @@
         <v>0.7667184385917416</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.7680683760683761</v>
+        <v>0.76806837606837608</v>
       </c>
       <c r="C106">
-        <v>1.000335176805765</v>
+        <v>1.0003351768057649</v>
       </c>
       <c r="D106">
         <v>17.24715822078905</v>
       </c>
       <c r="E106">
-        <v>0.7683258147732757</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>0.76832581477327566</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2379,58 +2419,58 @@
         <v>0.7712820512820513</v>
       </c>
       <c r="C107">
-        <v>0.984581866934808</v>
+        <v>0.98458186693480798</v>
       </c>
       <c r="D107">
         <v>16.97554942991048</v>
       </c>
       <c r="E107">
-        <v>0.7593903219845903</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>0.75939032198459033</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.7728888888888888</v>
+        <v>0.77288888888888885</v>
       </c>
       <c r="C108">
-        <v>0.9767052119993296</v>
+        <v>0.97670521199932958</v>
       </c>
       <c r="D108">
         <v>16.8397450344712</v>
       </c>
       <c r="E108">
-        <v>0.7548846060741484</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>0.75488460607414842</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.7744957264957265</v>
+        <v>0.77449572649572651</v>
       </c>
       <c r="C109">
-        <v>0.9767052119993296</v>
+        <v>0.97670521199932958</v>
       </c>
       <c r="D109">
         <v>16.8397450344712</v>
       </c>
       <c r="E109">
-        <v>0.7564540127395833</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>0.75645401273958335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.7777094017094017</v>
+        <v>0.77770940170940173</v>
       </c>
       <c r="C110">
-        <v>0.9688285570638512</v>
+        <v>0.96882855706385118</v>
       </c>
       <c r="D110">
         <v>16.70394063903192</v>
@@ -2439,143 +2479,143 @@
         <v>0.7534670774731107</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.7777094017094017</v>
+        <v>0.77770940170940173</v>
       </c>
       <c r="C111">
-        <v>0.9609519021283728</v>
+        <v>0.96095190212837278</v>
       </c>
       <c r="D111">
         <v>16.56813624359263</v>
       </c>
       <c r="E111">
-        <v>0.7473413288757683</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>0.74734132887576832</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.7809230769230769</v>
+        <v>0.78092307692307694</v>
       </c>
       <c r="C112">
-        <v>0.9530752471928943</v>
+        <v>0.95307524719289427</v>
       </c>
       <c r="D112">
         <v>16.43233184815335</v>
       </c>
       <c r="E112">
-        <v>0.7442784545770972</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>0.74427845457709718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7825299145299145</v>
+        <v>0.78252991452991449</v>
       </c>
       <c r="C113">
-        <v>0.9530752471928943</v>
+        <v>0.95307524719289427</v>
       </c>
       <c r="D113">
         <v>16.43233184815335</v>
       </c>
       <c r="E113">
-        <v>0.7458098917264326</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>0.74580989172643264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.7841367521367522</v>
+        <v>0.78413675213675216</v>
       </c>
       <c r="C114">
-        <v>0.9373219373219374</v>
+        <v>0.93732193732193736</v>
       </c>
       <c r="D114">
         <v>16.16072305727478</v>
       </c>
       <c r="E114">
-        <v>0.7349885796381523</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>0.73498857963815234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.7873504273504273</v>
+        <v>0.78735042735042726</v>
       </c>
       <c r="C115">
-        <v>0.9294452823864588</v>
+        <v>0.92944528238645885</v>
       </c>
       <c r="D115">
         <v>16.0249186618355</v>
       </c>
       <c r="E115">
-        <v>0.7317991402858169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>0.73179914028581694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.788957264957265</v>
+        <v>0.78895726495726504</v>
       </c>
       <c r="C116">
-        <v>0.9294452823864588</v>
+        <v>0.92944528238645885</v>
       </c>
       <c r="D116">
         <v>16.0249186618355</v>
       </c>
       <c r="E116">
-        <v>0.7332926079190535</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>0.73329260791905349</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.7905641025641026</v>
+        <v>0.79056410256410259</v>
       </c>
       <c r="C117">
-        <v>0.9136919725155019</v>
+        <v>0.91369197251550194</v>
       </c>
       <c r="D117">
-        <v>15.75330987095693</v>
+        <v>15.753309870956929</v>
       </c>
       <c r="E117">
-        <v>0.7223320742717425</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>0.72233207427174251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.7921709401709401</v>
+        <v>0.79217094017094014</v>
       </c>
       <c r="C118">
-        <v>0.9136919725155019</v>
+        <v>0.91369197251550194</v>
       </c>
       <c r="D118">
-        <v>15.75330987095693</v>
+        <v>15.753309870956929</v>
       </c>
       <c r="E118">
         <v>0.723800228894246</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2583,118 +2623,118 @@
         <v>0.7937777777777778</v>
       </c>
       <c r="C119">
-        <v>0.9058153175800235</v>
+        <v>0.90581531758002354</v>
       </c>
       <c r="D119">
         <v>15.61750547551765</v>
       </c>
       <c r="E119">
-        <v>0.7190160698657432</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>0.71901606986574318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.7953846153846154</v>
+        <v>0.79538461538461536</v>
       </c>
       <c r="C120">
-        <v>0.8979386626445449</v>
+        <v>0.89793866264454492</v>
       </c>
       <c r="D120">
-        <v>15.48170108007836</v>
+        <v>15.481701080078359</v>
       </c>
       <c r="E120">
-        <v>0.7142065978265072</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>0.71420659782650719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.7969914529914529</v>
+        <v>0.79699145299145291</v>
       </c>
       <c r="C121">
-        <v>0.8979386626445449</v>
+        <v>0.89793866264454492</v>
       </c>
       <c r="D121">
-        <v>15.48170108007836</v>
+        <v>15.481701080078359</v>
       </c>
       <c r="E121">
-        <v>0.7156494394382779</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>0.71564943943827786</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.7985982905982907</v>
+        <v>0.79859829059829068</v>
       </c>
       <c r="C122">
-        <v>0.8900620077090664</v>
+        <v>0.89006200770906641</v>
       </c>
       <c r="D122">
-        <v>15.34589668463908</v>
+        <v>15.345896684639079</v>
       </c>
       <c r="E122">
-        <v>0.7108019978829431</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>0.71080199788294307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8002051282051282</v>
+        <v>0.80020512820512824</v>
       </c>
       <c r="C123">
-        <v>0.882185352773588</v>
+        <v>0.88218535277358801</v>
       </c>
       <c r="D123">
-        <v>15.21009228919979</v>
+        <v>15.210092289199791</v>
       </c>
       <c r="E123">
-        <v>0.7059292433168752</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>0.70592924331687523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8018119658119658</v>
+        <v>0.80181196581196579</v>
       </c>
       <c r="C124">
-        <v>0.882185352773588</v>
+        <v>0.88218535277358801</v>
       </c>
       <c r="D124">
-        <v>15.21009228919979</v>
+        <v>15.210092289199791</v>
       </c>
       <c r="E124">
-        <v>0.7073467719179132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>0.70734677191791318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8018119658119658</v>
+        <v>0.80181196581196579</v>
       </c>
       <c r="C125">
-        <v>0.8743086978381095</v>
+        <v>0.87430869783810949</v>
       </c>
       <c r="D125">
-        <v>15.07428789376051</v>
+        <v>15.074287893760509</v>
       </c>
       <c r="E125">
-        <v>0.7010311757400746</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>0.70103117574007456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2702,16 +2742,16 @@
         <v>0.805025641025641</v>
       </c>
       <c r="C126">
-        <v>0.8664320429026311</v>
+        <v>0.86643204290263109</v>
       </c>
       <c r="D126">
-        <v>14.93848349832123</v>
+        <v>14.938483498321229</v>
       </c>
       <c r="E126">
-        <v>0.6975000107428463</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>0.69750001074284629</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2719,191 +2759,191 @@
         <v>0.805025641025641</v>
       </c>
       <c r="C127">
-        <v>0.8664320429026311</v>
+        <v>0.86643204290263109</v>
       </c>
       <c r="D127">
-        <v>14.93848349832123</v>
+        <v>14.938483498321229</v>
       </c>
       <c r="E127">
-        <v>0.6975000107428463</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>0.69750001074284629</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8066324786324786</v>
+        <v>0.80663247863247856</v>
       </c>
       <c r="C128">
-        <v>0.8585553879671527</v>
+        <v>0.85855538796715269</v>
       </c>
       <c r="D128">
-        <v>14.80267910288194</v>
+        <v>14.802679102881941</v>
       </c>
       <c r="E128">
-        <v>0.6925386606392137</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>0.69253866063921365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8066324786324786</v>
+        <v>0.80663247863247856</v>
       </c>
       <c r="C129">
-        <v>0.8506787330316741</v>
+        <v>0.85067873303167407</v>
       </c>
       <c r="D129">
-        <v>14.66687470744266</v>
+        <v>14.666874707442661</v>
       </c>
       <c r="E129">
         <v>0.6861850949452758</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8307350427350427</v>
+        <v>0.83073504273504273</v>
       </c>
       <c r="C130">
-        <v>0.7167755991285403</v>
+        <v>0.71677559912854028</v>
       </c>
       <c r="D130">
         <v>12.35819998497483</v>
       </c>
       <c r="E130">
-        <v>0.5954506079734838</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>0.59545060797348381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8532307692307692</v>
+        <v>0.85323076923076924</v>
       </c>
       <c r="C131">
-        <v>0.5986257750963634</v>
+        <v>0.59862577509636339</v>
       </c>
       <c r="D131">
-        <v>10.32113405338558</v>
+        <v>10.321134053385579</v>
       </c>
       <c r="E131">
-        <v>0.5107659305668356</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>0.51076593056683561</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.870905982905983</v>
+        <v>0.87090598290598298</v>
       </c>
       <c r="C132">
-        <v>0.5041059158706218</v>
+        <v>0.50410591587062181</v>
       </c>
       <c r="D132">
-        <v>8.691481308114168</v>
+        <v>8.6914813081141684</v>
       </c>
       <c r="E132">
-        <v>0.4390288581500247</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.43902885815002468</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8853675213675214</v>
+        <v>0.88536752136752139</v>
       </c>
       <c r="C133">
-        <v>0.425339366515837</v>
+        <v>0.42533936651583698</v>
       </c>
       <c r="D133">
-        <v>7.333437353721328</v>
+        <v>7.3334373537213278</v>
       </c>
       <c r="E133">
-        <v>0.3765816606721584</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.37658166067215842</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8982222222222223</v>
+        <v>0.89822222222222226</v>
       </c>
       <c r="C134">
-        <v>0.3544494720965309</v>
+        <v>0.35444947209653088</v>
       </c>
       <c r="D134">
-        <v>6.111197794767775</v>
+        <v>6.1111977947677749</v>
       </c>
       <c r="E134">
-        <v>0.3183743924920396</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.31837439249203958</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.9094700854700856</v>
+        <v>0.90947008547008557</v>
       </c>
       <c r="C135">
-        <v>0.2993128875481817</v>
+        <v>0.29931288754818169</v>
       </c>
       <c r="D135">
-        <v>5.160567026692788</v>
+        <v>5.1605670266927879</v>
       </c>
       <c r="E135">
-        <v>0.2722161174207429</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>0.27221611742074292</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.9191111111111112</v>
+        <v>0.91911111111111121</v>
       </c>
       <c r="C136">
-        <v>0.2520529579353109</v>
+        <v>0.25205295793531091</v>
       </c>
       <c r="D136">
-        <v>4.345740654057084</v>
+        <v>4.3457406540570842</v>
       </c>
       <c r="E136">
-        <v>0.2316646742267658</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>0.23166467422676579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.9271452991452991</v>
+        <v>0.92714529914529908</v>
       </c>
       <c r="C137">
-        <v>0.2126696832579185</v>
+        <v>0.21266968325791849</v>
       </c>
       <c r="D137">
-        <v>3.666718676860664</v>
+        <v>3.6667186768606639</v>
       </c>
       <c r="E137">
-        <v>0.1971756971032989</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>0.19717569710329891</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9335726495726496</v>
+        <v>0.93357264957264963</v>
       </c>
       <c r="C138">
         <v>0.1811630635160047</v>
@@ -2912,44 +2952,44 @@
         <v>3.12350109510353</v>
       </c>
       <c r="E138">
-        <v>0.1691288812113347</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.16912888121133471</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.9400000000000001</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="C139">
-        <v>0.1496564437740908</v>
+        <v>0.14965644377409079</v>
       </c>
       <c r="D139">
-        <v>2.580283513346394</v>
+        <v>2.5802835133463939</v>
       </c>
       <c r="E139">
-        <v>0.1406770571476454</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>0.14067705714764539</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.9448205128205128</v>
+        <v>0.94482051282051283</v>
       </c>
       <c r="C140">
-        <v>0.1339031339031339</v>
+        <v>0.13390313390313391</v>
       </c>
       <c r="D140">
         <v>2.308674722467825</v>
       </c>
       <c r="E140">
-        <v>0.1265144276426327</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>0.12651442764263271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2960,98 +3000,98 @@
         <v>0.1102731690966985</v>
       </c>
       <c r="D141">
-        <v>1.901261536149974</v>
+        <v>1.9012615361499741</v>
       </c>
       <c r="E141">
         <v>0.104719925401675</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9544615384615385</v>
+        <v>0.95446153846153847</v>
       </c>
       <c r="C142">
-        <v>0.09451985922574158</v>
+        <v>9.4519859225741576E-2</v>
       </c>
       <c r="D142">
         <v>1.629652745271406</v>
       </c>
       <c r="E142">
-        <v>0.09021557025176935</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>9.021557025176935E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.9576752136752137</v>
+        <v>0.95767521367521369</v>
       </c>
       <c r="C143">
-        <v>0.07876654935478464</v>
+        <v>7.8766549354784637E-2</v>
       </c>
       <c r="D143">
         <v>1.358043954392838</v>
       </c>
       <c r="E143">
-        <v>0.07543277198380265</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>7.5432771983802646E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.9624957264957266</v>
+        <v>0.96249572649572657</v>
       </c>
       <c r="C144">
-        <v>0.06301323948382773</v>
+        <v>6.3013239483827727E-2</v>
       </c>
       <c r="D144">
-        <v>1.086435163514271</v>
+        <v>1.0864351635142711</v>
       </c>
       <c r="E144">
-        <v>0.06064997371583597</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>6.064997371583597E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.9641025641025641</v>
+        <v>0.96410256410256412</v>
       </c>
       <c r="C145">
-        <v>0.05513658454834925</v>
+        <v>5.513658454834925E-2</v>
       </c>
       <c r="D145">
-        <v>0.950630768074987</v>
+        <v>0.95063076807498703</v>
       </c>
       <c r="E145">
-        <v>0.05315732253892133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>5.3157322538921331E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9673162393162393</v>
+        <v>0.96731623931623933</v>
       </c>
       <c r="C146">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D146">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E146">
-        <v>0.04571529738347235</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>4.5715297383472353E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3059,118 +3099,118 @@
         <v>0.968923076923077</v>
       </c>
       <c r="C147">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D147">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E147">
-        <v>0.03815936367972567</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>3.8159363679725673E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C148">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D148">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E148">
-        <v>0.03062874298671182</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>3.062874298671182E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9721367521367522</v>
+        <v>0.97213675213675221</v>
       </c>
       <c r="C149">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D149">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E149">
-        <v>0.03062874298671182</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>3.062874298671182E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C150">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D150">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E150">
-        <v>0.02300952675613309</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>2.3009526756133089E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9753504273504273</v>
+        <v>0.97535042735042732</v>
       </c>
       <c r="C151">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D151">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E151">
-        <v>0.02304749627223232</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>2.3047496272232321E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C152">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D152">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E152">
-        <v>0.01541562353628719</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>1.541562353628719E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C153">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D153">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E153">
-        <v>0.01541562353628719</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>1.541562353628719E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3178,16 +3218,16 @@
         <v>0.9801709401709402</v>
       </c>
       <c r="C154">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D154">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E154">
-        <v>0.01544093654702001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>1.544093654702001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3195,16 +3235,16 @@
         <v>0.9801709401709402</v>
       </c>
       <c r="C155">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D155">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E155">
-        <v>0.007720468273510004</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>7.720468273510004E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3212,106 +3252,106 @@
         <v>0.9801709401709402</v>
       </c>
       <c r="C156">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D156">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E156">
-        <v>0.007720468273510004</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>7.720468273510004E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C157">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D157">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E157">
-        <v>0.007733124778876414</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>7.733124778876414E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.9817777777777777</v>
+        <v>0.98177777777777775</v>
       </c>
       <c r="C158">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D158">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E158">
-        <v>0.007733124778876414</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>7.733124778876414E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C159">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D159">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E159">
-        <v>0.007745781284242824</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>7.7457812842428239E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C160">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D160">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E160">
-        <v>0.007745781284242824</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>7.7457812842428239E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C161">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D161">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E161">
-        <v>0.007745781284242824</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>7.7457812842428239E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3323,29 +3363,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C163">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D163">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E163">
-        <v>0.007758437789609233</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>7.758437789609233E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3357,29 +3397,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.984991452991453</v>
+        <v>0.98499145299145296</v>
       </c>
       <c r="C165">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D165">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E165">
-        <v>0.007758437789609233</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>7.758437789609233E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3391,12 +3431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3408,12 +3448,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3425,12 +3465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3442,12 +3482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3459,12 +3499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3476,12 +3516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3493,12 +3533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3510,12 +3550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3527,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3544,12 +3584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9865982905982905</v>
+        <v>0.98659829059829052</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3561,12 +3601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3578,12 +3618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3595,12 +3635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3612,12 +3652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3629,12 +3669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3646,12 +3686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3663,12 +3703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3680,12 +3720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3697,12 +3737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3714,12 +3754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3731,12 +3771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3748,12 +3788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3765,12 +3805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3782,12 +3822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3799,12 +3839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3816,12 +3856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3833,12 +3873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3850,12 +3890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3867,12 +3907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3884,12 +3924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3901,12 +3941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3918,12 +3958,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3935,12 +3975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3952,12 +3992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3969,12 +4009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3986,12 +4026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4003,12 +4043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4020,12 +4060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4037,12 +4077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4054,12 +4094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4071,12 +4111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4088,12 +4128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4105,12 +4145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4122,12 +4162,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4139,12 +4179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4156,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4173,12 +4213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -4190,12 +4230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4207,12 +4247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4224,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4241,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4258,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4275,12 +4315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4292,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4309,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4326,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4343,12 +4383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4360,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4377,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4411,12 +4451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -4428,12 +4468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -4445,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4462,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4479,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4496,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4513,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4530,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4547,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4564,12 +4604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4581,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4598,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4615,12 +4655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4632,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4649,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4666,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4683,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4700,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4717,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4734,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4751,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4768,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4785,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4802,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4819,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4836,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4853,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4870,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4887,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4904,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4921,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
